--- a/data/trans_camb/CoPsoQ_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R-Habitat-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>-2.791421119963933</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.02515911825130557</v>
+        <v>0.02515911825129447</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.5809938530214</v>
+        <v>-15.0512150977841</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.75345900247398</v>
+        <v>-11.95046169508585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.222567765583801</v>
+        <v>-8.39084380419005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.41370941552845</v>
+        <v>-12.88646212749409</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.40801489935528</v>
+        <v>-8.952562089121129</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.670961520223801</v>
+        <v>-8.970979420499352</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.616291809452376</v>
+        <v>1.086593795077076</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.78872641199309</v>
+        <v>15.14964374038071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.81404225031119</v>
+        <v>12.01830826128368</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.92198892711084</v>
+        <v>10.97890990183102</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.186396283504352</v>
+        <v>3.078351541892718</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.013746185604967</v>
+        <v>8.678831814815535</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>-0.09820144567513171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0008850910264022511</v>
+        <v>0.0008850910264018605</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4224022870931892</v>
+        <v>-0.4506225520214881</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3683152415032289</v>
+        <v>-0.3776944101353803</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2252003183139896</v>
+        <v>-0.255469650039993</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3832788937829081</v>
+        <v>-0.396657164931709</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2927430664548291</v>
+        <v>-0.2874658584121773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2560898934298432</v>
+        <v>-0.2972143734914297</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06859234402556372</v>
+        <v>0.04046163705643335</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5373829998156154</v>
+        <v>0.5739292636924784</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5818975703488001</v>
+        <v>0.4992955622344948</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4729195116558257</v>
+        <v>0.486477046630556</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1282471214534851</v>
+        <v>0.1222025112607935</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3481873198569259</v>
+        <v>0.3260881726399035</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.257347400881823</v>
+        <v>-7.933582476781598</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.130886113521219</v>
+        <v>-4.166843542562828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.181039279251106</v>
+        <v>-8.6208243009628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.591547055563595</v>
+        <v>-9.383352151665493</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.853301522066211</v>
+        <v>-6.326083270605489</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.108160860534146</v>
+        <v>-4.186515328424155</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.586766095831248</v>
+        <v>3.967565549386437</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.56438702035322</v>
+        <v>14.40337140654246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.604907043136738</v>
+        <v>6.792917219757996</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.714926243224779</v>
+        <v>7.704781465353343</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.269283187824187</v>
+        <v>3.1946950204525</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.671389515139918</v>
+        <v>8.761364401162334</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.322759345231436</v>
+        <v>-0.3085193099860405</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1256347870925731</v>
+        <v>-0.1721938193087399</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2867807645370629</v>
+        <v>-0.2998765833135399</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3541479599713278</v>
+        <v>-0.3540902284283886</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2377499277017141</v>
+        <v>-0.2402759615992657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1713462617868833</v>
+        <v>-0.1709281761659051</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1958768935010521</v>
+        <v>0.2184689493359843</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7383281295116506</v>
+        <v>0.7318032502376649</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3240184155187136</v>
+        <v>0.3470996019071113</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3753736697567275</v>
+        <v>0.3712057981843147</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1610551023482716</v>
+        <v>0.1650050773201655</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4237028431356</v>
+        <v>0.4047859890470885</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>-0.547194092669312</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>16.7205142123114</v>
+        <v>16.72051421231141</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-4.518554860667629</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.516146752339541</v>
+        <v>-6.661017189875435</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.448510352336435</v>
+        <v>5.075026205266117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.81634866967971</v>
+        <v>-11.49912059868464</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2148397005352307</v>
+        <v>-0.6059068629769251</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.701175925356353</v>
+        <v>-7.080837342832634</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.22260821924639</v>
+        <v>4.833272231183456</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.600562784875185</v>
+        <v>5.764699818176164</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>31.55257311051468</v>
+        <v>32.3140545204063</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.531349248273714</v>
+        <v>2.716721734547002</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.22787358381741</v>
+        <v>20.61653788784589</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.610622691673304</v>
+        <v>2.719438836496184</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>22.48771585429415</v>
+        <v>22.56771045080722</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.02864802318624982</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.875392635369327</v>
+        <v>0.8753926353693272</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.2295335413787168</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2935582325258484</v>
+        <v>-0.3125093825274188</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1919172257074152</v>
+        <v>0.2130330122486375</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4931397064324292</v>
+        <v>-0.4845589890834983</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.001334251947792328</v>
+        <v>-0.03017288642586117</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3082532722163049</v>
+        <v>-0.3223199756167285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2374285550337654</v>
+        <v>0.2136931654861676</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3548468669499159</v>
+        <v>0.3726174296697879</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.86826154845221</v>
+        <v>1.917619557319656</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1699933823409174</v>
+        <v>0.2007159463476265</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.453019601872573</v>
+        <v>1.244157102521532</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1629661035737163</v>
+        <v>0.171991766957184</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.284597084866717</v>
+        <v>1.302347812225445</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>2.078105610782349</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18.32973212504228</v>
+        <v>18.32973212504226</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>4.863779735777415</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9601696202216499</v>
+        <v>0.6389389492453905</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.034926755437032</v>
+        <v>8.805410909391643</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.974013770807253</v>
+        <v>-5.186790660256111</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.194671465558757</v>
+        <v>8.148483483789837</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2963877346764102</v>
+        <v>0.2865138862669087</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.45477407084135</v>
+        <v>11.67341176595525</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.7505969816109</v>
+        <v>12.91336779197463</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>30.78899676116489</v>
+        <v>30.61982381972115</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.027498460501244</v>
+        <v>8.818782442705785</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28.029308798743</v>
+        <v>28.78013772932671</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.542571428574199</v>
+        <v>9.331361784026173</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.46760392459141</v>
+        <v>26.66163442924003</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>0.08975904617561338</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.7917110967131739</v>
+        <v>0.7917110967131733</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2201663652472879</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.04627465176328436</v>
+        <v>0.02496228242287949</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.376807681876709</v>
+        <v>0.3650164285814702</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.185755700643747</v>
+        <v>-0.1888744222866407</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3131253838282951</v>
+        <v>0.306952281415889</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.007810212283219802</v>
+        <v>0.005691736261790207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4699718735531162</v>
+        <v>0.4719575960854011</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7876273337195639</v>
+        <v>0.716472733693119</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.607038236208701</v>
+        <v>1.608393313739331</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4761817221034461</v>
+        <v>0.4394288558092858</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.390566597644584</v>
+        <v>1.469088651861668</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.466459362413717</v>
+        <v>0.4677923318756768</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.303070115964849</v>
+        <v>1.291748237183774</v>
       </c>
     </row>
     <row r="28">
@@ -1258,7 +1258,7 @@
         <v>-0.5355518241398322</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6.34236082233395</v>
+        <v>6.342360822333945</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.234730624460841</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.945055445125106</v>
+        <v>-3.605212720101626</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.927574039242646</v>
+        <v>4.538988827018112</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.479847121013803</v>
+        <v>-4.269366497434801</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.044836774872466</v>
+        <v>1.575186021485133</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.930193968728966</v>
+        <v>-2.887286219571706</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.680111266446197</v>
+        <v>4.697515375666368</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.279926005586945</v>
+        <v>2.896808194712396</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.16992017636073</v>
+        <v>15.24992342869331</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.593286544013318</v>
+        <v>3.505741041823866</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.05480393084661</v>
+        <v>11.29638871194421</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.088399857363724</v>
+        <v>2.444101849593088</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.45996370888659</v>
+        <v>12.3910636264611</v>
       </c>
     </row>
     <row r="31">
@@ -1330,13 +1330,13 @@
         <v>-0.002467215248603273</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.4535431406945102</v>
+        <v>0.4535431406945105</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.02273436223717931</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.2692354350681601</v>
+        <v>0.2692354350681598</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.01024276490038253</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1254914238768594</v>
+        <v>-0.145531085091077</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2095897251355737</v>
+        <v>0.1911012339893397</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1746374120873187</v>
+        <v>-0.1703973086467838</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03661563565321553</v>
+        <v>0.06414560885402447</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.120950162937589</v>
+        <v>-0.1197591797432484</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.193468405320304</v>
+        <v>0.1968483044491781</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1617051787931479</v>
+        <v>0.1361566783842119</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.76229944602424</v>
+        <v>0.7129588846524921</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1663505261872872</v>
+        <v>0.1586443666413866</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5476017488881878</v>
+        <v>0.5184970956417744</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.09373787511953513</v>
+        <v>0.1134364982817648</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5648269671802937</v>
+        <v>0.571720847091405</v>
       </c>
     </row>
     <row r="34">
